--- a/examples/Database/Tulashie_Experimental.xlsx
+++ b/examples/Database/Tulashie_Experimental.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rgp11/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C30DDA25-7A82-6E4E-9A55-411F9165A800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA92025-2456-FC4E-BC81-29A919AADFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="25040" windowHeight="14180" activeTab="4" xr2:uid="{BB1FBCE0-2C8D-FB47-886C-E0FB70F4821A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="16000" activeTab="1" xr2:uid="{BB1FBCE0-2C8D-FB47-886C-E0FB70F4821A}"/>
   </bookViews>
   <sheets>
     <sheet name="298.15" sheetId="1" r:id="rId1"/>
-    <sheet name="318.15" sheetId="2" r:id="rId2"/>
-    <sheet name="323.15" sheetId="3" r:id="rId3"/>
-    <sheet name="328.15" sheetId="4" r:id="rId4"/>
-    <sheet name="333.15" sheetId="5" r:id="rId5"/>
+    <sheet name="308.15" sheetId="6" r:id="rId2"/>
+    <sheet name="318.15" sheetId="2" r:id="rId3"/>
+    <sheet name="323.15" sheetId="3" r:id="rId4"/>
+    <sheet name="328.15" sheetId="4" r:id="rId5"/>
+    <sheet name="333.15" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
   <si>
     <t>x1</t>
   </si>
@@ -509,6 +510,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7464CD84-30A9-C243-9322-6E87E4D1B146}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>17.03</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>82.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>16.37</v>
+      </c>
+      <c r="B3">
+        <v>2.89</v>
+      </c>
+      <c r="C3">
+        <v>80.739999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="B4">
+        <v>4.91</v>
+      </c>
+      <c r="C4">
+        <v>78.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>17.22</v>
+      </c>
+      <c r="B5">
+        <v>7.71</v>
+      </c>
+      <c r="C5">
+        <v>75.069999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>13.98</v>
+      </c>
+      <c r="B6">
+        <v>9.73</v>
+      </c>
+      <c r="C6">
+        <v>76.290000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7.85</v>
+      </c>
+      <c r="B7">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="C7">
+        <v>75.069999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10.7</v>
+      </c>
+      <c r="B8">
+        <v>10.66</v>
+      </c>
+      <c r="C8">
+        <v>78.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="C9">
+        <v>82.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF7FD3E-518A-0344-BB10-1C30B8FB5932}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -622,7 +737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991CDE7C-FCB9-FD4C-923E-A11A2D5F8E0D}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -703,7 +818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008C9598-84AC-A846-B332-AECD5A21F1EB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -789,11 +904,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5422D3B3-2068-B547-AABE-6FBCCD77E1C9}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
